--- a/EXCEL ASSIGNMENT 2 SOLUTION.xlsx
+++ b/EXCEL ASSIGNMENT 2 SOLUTION.xlsx
@@ -1346,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
